--- a/socks_results_thresholds.xlsx
+++ b/socks_results_thresholds.xlsx
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.08351769999999981</v>
+        <v>0.08169889999999992</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.07815539999999993</v>
+        <v>0.07749439999999988</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.008961231377220793</v>
+        <v>0.007849599960798016</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>-0.003952227258812903</v>
+        <v>-0.003916746619533809</v>
       </c>
       <c r="G7" s="3" t="inlineStr"/>
     </row>

--- a/socks_results_thresholds.xlsx
+++ b/socks_results_thresholds.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,8 +463,7 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -480,25 +479,20 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>2023年收益率</t>
+          <t>2024年收益率</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>2024年收益率</t>
+          <t>2025年收益率</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>2025年收益率</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
           <t>2026年收益率</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>gittag</t>
         </is>
@@ -511,21 +505,18 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>-0.04945040000000011</v>
+        <v>0.02041380000000004</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.1609838</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08149399999999994</v>
+        <v>-0.1387142525158404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>-0.1387123738088238</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.02047521496495783</v>
-      </c>
-      <c r="G2" s="3" t="inlineStr"/>
+        <v>0.02047625314669258</v>
+      </c>
+      <c r="F2" s="3" t="inlineStr"/>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -534,21 +525,18 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.2532890999999997</v>
+        <v>0.3619323999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>0.1315304000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04125899999999994</v>
+        <v>0.1009932212161511</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.1009847693993519</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.09322909956409156</v>
-      </c>
-      <c r="G3" s="3" t="inlineStr"/>
+        <v>0.09321273041183802</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -557,21 +545,18 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.1013778000000001</v>
+        <v>0.07476919999999976</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>-0.01806170000000013</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.006338399999999965</v>
+        <v>0.1040412620630033</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.1039215039394304</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>-0.008588207992916869</v>
-      </c>
-      <c r="G4" s="3" t="inlineStr"/>
+        <v>-0.008607320871756856</v>
+      </c>
+      <c r="F4" s="3" t="inlineStr"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -580,21 +565,18 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.07588329999999988</v>
+        <v>0.09680840000000002</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0.09680839999999996</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.07588329999999988</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -603,21 +585,18 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.24207</v>
+        <v>0.1731526999999999</v>
       </c>
       <c r="C6" s="4" t="n">
+        <v>0.01569529999999999</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.1550242479215961</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>0.07534470000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.1550435874189922</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
@@ -626,21 +605,18 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.08169889999999992</v>
+        <v>0.09195889999999984</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0</v>
+        <v>0.08771889999999985</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.07749439999999988</v>
+        <v>0.00783658351436211</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.007849599960798016</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>-0.003916746619533809</v>
-      </c>
-      <c r="G7" s="3" t="inlineStr"/>
+        <v>-0.003907893040858087</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
@@ -649,21 +625,18 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.3241075000000002</v>
+        <v>0.3002734</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0</v>
+        <v>0.1134363</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.1339330000000002</v>
+        <v>0.1698670143949862</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.1697732582083774</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>-0.001761852832892613</v>
-      </c>
-      <c r="G8" s="3" t="inlineStr"/>
+        <v>-0.001764969071968734</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
@@ -672,21 +645,18 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.08810220000000001</v>
+        <v>0.1193591000000001</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>0.0934387000000001</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.06290779999999999</v>
+        <v>0.02601517579357678</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.02601316878096112</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>-0.002251325789912609</v>
-      </c>
-      <c r="G9" s="3" t="inlineStr"/>
+        <v>-0.002251211733255763</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
@@ -695,21 +665,18 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.4968316999999998</v>
+        <v>0.4015220000000004</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0</v>
+        <v>0.08313210000000007</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.1493316999999998</v>
+        <v>0.2632700111094486</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.2714856816356844</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.02427391548194741</v>
-      </c>
-      <c r="G10" s="3" t="inlineStr"/>
+        <v>0.02428852165146771</v>
+      </c>
+      <c r="F10" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/socks_results_thresholds.xlsx
+++ b/socks_results_thresholds.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -479,20 +482,35 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>2021年收益率</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>2022年收益率</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>2023年收益率</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>2024年收益率</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>2025年收益率</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>2026年收益率</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>gittag</t>
         </is>
@@ -505,18 +523,27 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.02041380000000004</v>
+        <v>-0.2161895000000001</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.1609838</v>
+        <v>-0.05849459999999992</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-0.1387142525158404</v>
+        <v>-0.02340942494859838</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.02047625314669258</v>
-      </c>
-      <c r="F2" s="3" t="inlineStr"/>
+        <v>-0.1013223663796775</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.07924466923691052</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>-0.1387102019213195</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.02047550553090839</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr"/>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -525,18 +552,27 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.3619323999999999</v>
+        <v>0.2157097000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.1315304000000001</v>
+        <v>0.1070351999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.1009932212161511</v>
+        <v>-0.006364657600770026</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.09321273041183802</v>
-      </c>
-      <c r="F3" s="3" t="inlineStr"/>
+        <v>-0.02213203346614372</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>-0.0610185913689125</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.1010004851437114</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.09324298136322011</v>
+      </c>
+      <c r="I3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -545,18 +581,27 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.07476919999999976</v>
+        <v>0.2741978999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>-0.01806170000000013</v>
+        <v>0.08721649999999995</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1040412620630033</v>
+        <v>0.02693814893353817</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>-0.008607320871756856</v>
-      </c>
-      <c r="F4" s="3" t="inlineStr"/>
+        <v>0.00129296435185505</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.04138476245355669</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.1039602952619436</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>-0.008595866144504501</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -565,18 +610,27 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.09680840000000002</v>
+        <v>0.0257137999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.09680839999999996</v>
+        <v>0.002690899999999966</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.03350234853033971</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-0.06354120890096279</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.05696105681081508</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="H5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -585,18 +639,27 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.1731526999999999</v>
+        <v>0.3681178999999999</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.01569529999999999</v>
+        <v>0.105315</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1550242479215961</v>
+        <v>0.1127092276862252</v>
       </c>
       <c r="E6" s="4" t="n">
+        <v>-0.1023645773758425</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.07288591287328242</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.1550538877384371</v>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
@@ -605,18 +668,27 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.09195889999999984</v>
+        <v>0.06084289999999992</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.08771889999999985</v>
+        <v>0.07508529999999999</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.00783658351436211</v>
+        <v>-0.00914904147605768</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>-0.003907893040858087</v>
-      </c>
-      <c r="F7" s="3" t="inlineStr"/>
+        <v>-0.05809635359535093</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.05207272109712722</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.00895756955693857</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>-0.003964825831871206</v>
+      </c>
+      <c r="I7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
@@ -625,18 +697,27 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.3002734</v>
+        <v>0.4997150000000004</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.1134363</v>
+        <v>0.01129989999999991</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.1698670143949862</v>
+        <v>0.2494918668537397</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>-0.001764969071968734</v>
-      </c>
-      <c r="F8" s="3" t="inlineStr"/>
+        <v>-0.1499197933541254</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.1956002896001536</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.1698199798984458</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>-0.001770529994175888</v>
+      </c>
+      <c r="I8" s="3" t="inlineStr"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
@@ -645,18 +726,27 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.1193591000000001</v>
+        <v>-0.05158479999999999</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.0934387000000001</v>
+        <v>0.05582559999999998</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.02601517579357678</v>
+        <v>0.01077810577807557</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>-0.002251211733255763</v>
-      </c>
-      <c r="F9" s="3" t="inlineStr"/>
+        <v>-0.08288601238337061</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>-0.05343739814804415</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.02602199024402041</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>-0.002251315862561164</v>
+      </c>
+      <c r="I9" s="3" t="inlineStr"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
@@ -665,18 +755,27 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.4015220000000004</v>
+        <v>1.236649</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.08313210000000007</v>
+        <v>0.0361725</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.2632700111094486</v>
+        <v>0.09471830221319325</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.02428852165146771</v>
-      </c>
-      <c r="F10" s="3" t="inlineStr"/>
+        <v>0.3172648386650292</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.149325265850348</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.2714941230131585</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.02431370516000797</v>
+      </c>
+      <c r="I10" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
